--- a/src/databases/logisticsDB_ports_python.xlsx
+++ b/src/databases/logisticsDB_ports_python.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Databse" sheetId="1" r:id="rId1"/>
     <sheet name="python" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -10694,6 +10694,534 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 22"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 20"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 16"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 14"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10966,7 +11494,7 @@
       <selection activeCell="BY1" sqref="BY1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="38" width="22.140625"/>
     <col min="39" max="39" width="26.85546875"/>
@@ -37915,11 +38443,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HI198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.7109375"/>
     <col min="2" max="14" width="22.140625"/>
@@ -38206,7 +38734,7 @@
     </row>
     <row r="2" spans="1:217" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="201" t="s">
         <v>1406</v>
@@ -38411,7 +38939,7 @@
     </row>
     <row r="3" spans="1:217" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="199"/>
       <c r="C3" s="199"/>
@@ -38622,7 +39150,7 @@
     </row>
     <row r="4" spans="1:217" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="199" t="s">
         <v>1418</v>
@@ -38927,7 +39455,7 @@
     </row>
     <row r="5" spans="1:217" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="200">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="199"/>
       <c r="C5" s="199"/>
@@ -39164,7 +39692,7 @@
     </row>
     <row r="6" spans="1:217" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="200">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="199" t="s">
         <v>1436</v>
@@ -39365,7 +39893,7 @@
     </row>
     <row r="7" spans="1:217" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="200">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="199" t="s">
         <v>1446</v>
@@ -39564,7 +40092,7 @@
     </row>
     <row r="8" spans="1:217" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="200">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="199" t="s">
         <v>1461</v>
@@ -39761,7 +40289,7 @@
     </row>
     <row r="9" spans="1:217" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="200">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="199" t="s">
         <v>1474</v>
@@ -39980,7 +40508,7 @@
     </row>
     <row r="10" spans="1:217" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="200">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="199" t="s">
         <v>1489</v>
@@ -40187,7 +40715,7 @@
     </row>
     <row r="11" spans="1:217" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="200">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="199"/>
       <c r="C11" s="199"/>
@@ -40310,7 +40838,7 @@
     </row>
     <row r="12" spans="1:217" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="200">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="199"/>
       <c r="C12" s="199"/>
@@ -40433,7 +40961,7 @@
     </row>
     <row r="13" spans="1:217" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="200">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="199" t="s">
         <v>1507</v>
@@ -40636,7 +41164,7 @@
     </row>
     <row r="14" spans="1:217" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="200">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="199"/>
       <c r="C14" s="199"/>
@@ -40755,7 +41283,7 @@
     </row>
     <row r="15" spans="1:217" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="200">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="199"/>
       <c r="C15" s="199"/>
@@ -40876,7 +41404,7 @@
     </row>
     <row r="16" spans="1:217" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="200">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="199" t="s">
         <v>1524</v>
@@ -41089,7 +41617,7 @@
     </row>
     <row r="17" spans="1:179" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="200">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="199" t="s">
         <v>243</v>
@@ -41288,7 +41816,7 @@
     </row>
     <row r="18" spans="1:179" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="200">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="199"/>
       <c r="C18" s="199"/>
@@ -41405,7 +41933,7 @@
     </row>
     <row r="19" spans="1:179" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="200">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="199" t="s">
         <v>1554</v>
@@ -41602,7 +42130,7 @@
     </row>
     <row r="20" spans="1:179" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="200">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="199" t="s">
         <v>1565</v>
@@ -41811,7 +42339,7 @@
     </row>
     <row r="21" spans="1:179" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="200">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="199"/>
       <c r="C21" s="199"/>
@@ -41928,7 +42456,7 @@
     </row>
     <row r="22" spans="1:179" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="200">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="199"/>
       <c r="C22" s="199"/>
@@ -42041,7 +42569,7 @@
     </row>
     <row r="23" spans="1:179" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="200">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="199" t="s">
         <v>1579</v>
@@ -42238,7 +42766,7 @@
     </row>
     <row r="24" spans="1:179" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="200">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="199"/>
       <c r="C24" s="199"/>
@@ -42355,7 +42883,7 @@
     </row>
     <row r="25" spans="1:179" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="200">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="199" t="s">
         <v>319</v>
@@ -42660,7 +43188,7 @@
     </row>
     <row r="26" spans="1:179" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="200">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="199" t="s">
         <v>334</v>
@@ -42971,7 +43499,7 @@
     </row>
     <row r="27" spans="1:179" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="200">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="199"/>
       <c r="C27" s="199"/>
@@ -43182,7 +43710,7 @@
     </row>
     <row r="28" spans="1:179" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="200">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="199"/>
       <c r="C28" s="199"/>
@@ -43389,7 +43917,7 @@
     </row>
     <row r="29" spans="1:179" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="200">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="199"/>
       <c r="C29" s="199"/>
@@ -43596,7 +44124,7 @@
     </row>
     <row r="30" spans="1:179" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="200">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="199"/>
       <c r="C30" s="199"/>
@@ -43803,7 +44331,7 @@
     </row>
     <row r="31" spans="1:179" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="200">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="199" t="s">
         <v>1627</v>
@@ -44024,7 +44552,7 @@
     </row>
     <row r="32" spans="1:179" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="200">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="199" t="s">
         <v>1637</v>
@@ -44185,7 +44713,7 @@
     </row>
     <row r="33" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="200">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="199" t="s">
         <v>1645</v>
@@ -44350,7 +44878,7 @@
     </row>
     <row r="34" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="200">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="199" t="s">
         <v>1652</v>
@@ -44503,7 +45031,7 @@
     </row>
     <row r="35" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="200">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="199" t="s">
         <v>1661</v>
@@ -44662,7 +45190,7 @@
     </row>
     <row r="36" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="200">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="199" t="s">
         <v>1666</v>
@@ -44817,7 +45345,7 @@
     </row>
     <row r="37" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="200">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="199" t="s">
         <v>1674</v>
@@ -44968,7 +45496,7 @@
     </row>
     <row r="38" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="200">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="199" t="s">
         <v>1680</v>
@@ -45115,7 +45643,7 @@
     </row>
     <row r="39" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="200">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="199" t="s">
         <v>445</v>
@@ -45320,7 +45848,7 @@
     </row>
     <row r="40" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="200">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="199"/>
       <c r="C40" s="199"/>
@@ -45437,7 +45965,7 @@
     </row>
     <row r="41" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="200">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="199"/>
       <c r="C41" s="199"/>
@@ -45554,7 +46082,7 @@
     </row>
     <row r="42" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="200">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="199" t="s">
         <v>1694</v>
@@ -45699,7 +46227,7 @@
     </row>
     <row r="43" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="200">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="199" t="s">
         <v>1701</v>
@@ -45842,7 +46370,7 @@
     </row>
     <row r="44" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="200">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="199" t="s">
         <v>1707</v>
@@ -45987,7 +46515,7 @@
     </row>
     <row r="45" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="200">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="199" t="s">
         <v>1714</v>
@@ -46146,7 +46674,7 @@
     </row>
     <row r="46" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="200">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="199" t="s">
         <v>1721</v>
@@ -46311,7 +46839,7 @@
     </row>
     <row r="47" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="200">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="199" t="s">
         <v>1730</v>
@@ -46506,7 +47034,7 @@
     </row>
     <row r="48" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="200">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="199" t="s">
         <v>1737</v>
@@ -46669,7 +47197,7 @@
     </row>
     <row r="49" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="200">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="199" t="s">
         <v>1745</v>
@@ -46826,7 +47354,7 @@
     </row>
     <row r="50" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="200">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="199" t="s">
         <v>1754</v>
@@ -46979,7 +47507,7 @@
     </row>
     <row r="51" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="200">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="199" t="s">
         <v>1761</v>
@@ -47136,7 +47664,7 @@
     </row>
     <row r="52" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="200">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="199" t="s">
         <v>561</v>
@@ -47345,7 +47873,7 @@
     </row>
     <row r="53" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="200">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="199"/>
       <c r="C53" s="199"/>
@@ -47464,7 +47992,7 @@
     </row>
     <row r="54" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="200">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="199"/>
       <c r="C54" s="199"/>
@@ -47583,7 +48111,7 @@
     </row>
     <row r="55" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="200">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="199" t="s">
         <v>573</v>
@@ -47786,7 +48314,7 @@
     </row>
     <row r="56" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="200">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="199"/>
       <c r="C56" s="199"/>
@@ -47905,7 +48433,7 @@
     </row>
     <row r="57" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="200">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="199"/>
       <c r="C57" s="199"/>
@@ -48024,7 +48552,7 @@
     </row>
     <row r="58" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="200">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="199"/>
       <c r="C58" s="199"/>
@@ -48145,7 +48673,7 @@
     </row>
     <row r="59" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="200">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="199"/>
       <c r="C59" s="199"/>
@@ -48256,7 +48784,7 @@
     </row>
     <row r="60" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="200">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="199" t="s">
         <v>1779</v>
@@ -48475,7 +49003,7 @@
     </row>
     <row r="61" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="200">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="199" t="s">
         <v>1796</v>
@@ -48600,7 +49128,7 @@
     </row>
     <row r="62" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="200">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="199" t="s">
         <v>1802</v>
@@ -48767,7 +49295,7 @@
     </row>
     <row r="63" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="200">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="199" t="s">
         <v>1812</v>
@@ -48894,7 +49422,7 @@
     </row>
     <row r="64" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="200">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="199" t="s">
         <v>1818</v>
@@ -49023,7 +49551,7 @@
     </row>
     <row r="65" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="200">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="199" t="s">
         <v>1823</v>
@@ -49148,7 +49676,7 @@
     </row>
     <row r="66" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="200">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="199" t="s">
         <v>1828</v>
@@ -49279,7 +49807,7 @@
     </row>
     <row r="67" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="200">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="199" t="s">
         <v>1835</v>
@@ -49508,7 +50036,7 @@
     </row>
     <row r="68" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="200">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="199" t="s">
         <v>640</v>
@@ -49709,7 +50237,7 @@
     </row>
     <row r="69" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="200">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="199"/>
       <c r="C69" s="199"/>
@@ -49830,7 +50358,7 @@
     </row>
     <row r="70" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="200">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="199" t="s">
         <v>1858</v>
@@ -50027,7 +50555,7 @@
     </row>
     <row r="71" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="200">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="199" t="s">
         <v>1867</v>
@@ -50236,7 +50764,7 @@
     </row>
     <row r="72" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="200">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="199"/>
       <c r="C72" s="199"/>
@@ -50353,7 +50881,7 @@
     </row>
     <row r="73" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="200">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="199"/>
       <c r="C73" s="199"/>
@@ -50472,7 +51000,7 @@
     </row>
     <row r="74" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="200">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="199" t="s">
         <v>1889</v>
@@ -50665,7 +51193,7 @@
     </row>
     <row r="75" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="200">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="199" t="s">
         <v>1895</v>
@@ -50858,7 +51386,7 @@
     </row>
     <row r="76" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="200">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="199"/>
       <c r="C76" s="199"/>
@@ -50963,7 +51491,7 @@
     </row>
     <row r="77" spans="1:89" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="200">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="199" t="s">
         <v>1907</v>
@@ -51168,7 +51696,7 @@
     </row>
     <row r="78" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="200">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="199"/>
       <c r="C78" s="199"/>
@@ -51283,7 +51811,7 @@
     </row>
     <row r="79" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="200">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="199" t="s">
         <v>1928</v>
@@ -51488,7 +52016,7 @@
     </row>
     <row r="80" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="200">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="199"/>
       <c r="C80" s="199"/>
@@ -51605,7 +52133,7 @@
     </row>
     <row r="81" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="200">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="199"/>
       <c r="C81" s="199"/>
@@ -51720,7 +52248,7 @@
     </row>
     <row r="82" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="200">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="199"/>
       <c r="C82" s="199"/>
@@ -51835,7 +52363,7 @@
     </row>
     <row r="83" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="200">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="199" t="s">
         <v>1945</v>
@@ -52050,7 +52578,7 @@
     </row>
     <row r="84" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="200">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="199"/>
       <c r="C84" s="199"/>
@@ -52173,7 +52701,7 @@
     </row>
     <row r="85" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="200">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="199"/>
       <c r="C85" s="199"/>
@@ -52292,7 +52820,7 @@
     </row>
     <row r="86" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="200">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="199"/>
       <c r="C86" s="199"/>
@@ -52413,7 +52941,7 @@
     </row>
     <row r="87" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="200">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="199"/>
       <c r="C87" s="199"/>
@@ -52534,7 +53062,7 @@
     </row>
     <row r="88" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="200">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="199" t="s">
         <v>1970</v>
@@ -52747,7 +53275,7 @@
     </row>
     <row r="89" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="200">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="199" t="s">
         <v>852</v>
@@ -52958,7 +53486,7 @@
     </row>
     <row r="90" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="200">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="199"/>
       <c r="C90" s="199"/>
@@ -53087,7 +53615,7 @@
     </row>
     <row r="91" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="200">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="199"/>
       <c r="C91" s="199"/>
@@ -53208,7 +53736,7 @@
     </row>
     <row r="92" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="200">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="199"/>
       <c r="C92" s="199"/>
@@ -53333,7 +53861,7 @@
     </row>
     <row r="93" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="200">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="199"/>
       <c r="C93" s="199"/>
@@ -53458,7 +53986,7 @@
     </row>
     <row r="94" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="200">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="199" t="s">
         <v>875</v>
@@ -53655,7 +54183,7 @@
     </row>
     <row r="95" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="200">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="199" t="s">
         <v>875</v>
@@ -53856,7 +54384,7 @@
     </row>
     <row r="96" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="200">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="199" t="s">
         <v>2010</v>
@@ -54065,7 +54593,7 @@
     </row>
     <row r="97" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="200">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="199" t="s">
         <v>2019</v>
@@ -54280,7 +54808,7 @@
     </row>
     <row r="98" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="200">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="199" t="s">
         <v>2028</v>
@@ -54493,7 +55021,7 @@
     </row>
     <row r="99" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="200">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="199" t="s">
         <v>937</v>
@@ -54708,7 +55236,7 @@
     </row>
     <row r="100" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="200">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="199"/>
       <c r="C100" s="199"/>
@@ -54835,7 +55363,7 @@
     </row>
     <row r="101" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="200">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="199" t="s">
         <v>2041</v>
@@ -55040,7 +55568,7 @@
     </row>
     <row r="102" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="200">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="199" t="s">
         <v>963</v>
@@ -55249,7 +55777,7 @@
     </row>
     <row r="103" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="200">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="199"/>
       <c r="C103" s="199"/>
@@ -55374,7 +55902,7 @@
     </row>
     <row r="104" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="200">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="199"/>
       <c r="C104" s="199"/>
@@ -55499,7 +56027,7 @@
     </row>
     <row r="105" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="200">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="199" t="s">
         <v>975</v>
@@ -55686,7 +56214,7 @@
     </row>
     <row r="106" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="200">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="199"/>
       <c r="C106" s="199"/>
@@ -55803,7 +56331,7 @@
     </row>
     <row r="107" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="200">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="199"/>
       <c r="C107" s="199"/>
@@ -55918,7 +56446,7 @@
     </row>
     <row r="108" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="200">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="199" t="s">
         <v>2064</v>
@@ -56065,7 +56593,7 @@
     </row>
     <row r="109" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="200">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="199" t="s">
         <v>2069</v>
@@ -56212,7 +56740,7 @@
     </row>
     <row r="110" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="200">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="199" t="s">
         <v>2075</v>
@@ -56333,7 +56861,7 @@
     </row>
     <row r="111" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="200">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="199" t="s">
         <v>2076</v>
@@ -56528,7 +57056,7 @@
     </row>
     <row r="112" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="200">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="199"/>
       <c r="C112" s="199"/>
@@ -56643,7 +57171,7 @@
     </row>
     <row r="113" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="200">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="199"/>
       <c r="C113" s="199"/>
@@ -56758,7 +57286,7 @@
     </row>
     <row r="114" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="200">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="199"/>
       <c r="C114" s="199"/>
@@ -56869,7 +57397,7 @@
     </row>
     <row r="115" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="200">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="199"/>
       <c r="C115" s="199"/>
@@ -56978,7 +57506,7 @@
     </row>
     <row r="116" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="200">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="199" t="s">
         <v>2089</v>
@@ -57127,7 +57655,7 @@
     </row>
     <row r="117" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="200">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="199"/>
       <c r="C117" s="199"/>
@@ -57238,7 +57766,7 @@
     </row>
     <row r="118" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="200">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="199"/>
       <c r="C118" s="199"/>
@@ -57351,7 +57879,7 @@
     </row>
     <row r="119" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="200">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="199"/>
       <c r="C119" s="199"/>
@@ -57464,7 +57992,7 @@
     </row>
     <row r="120" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="200">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="199"/>
       <c r="C120" s="199"/>
@@ -57567,7 +58095,7 @@
     </row>
     <row r="121" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="200">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="199"/>
       <c r="C121" s="199"/>
@@ -57672,7 +58200,7 @@
     </row>
     <row r="122" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="200">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="199"/>
       <c r="C122" s="199"/>
@@ -57777,7 +58305,7 @@
     </row>
     <row r="123" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="200">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="199" t="s">
         <v>1052</v>
@@ -57964,7 +58492,7 @@
     </row>
     <row r="124" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="200">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="199"/>
       <c r="C124" s="199"/>
@@ -58067,7 +58595,7 @@
     </row>
     <row r="125" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="200">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="199" t="s">
         <v>2116</v>
@@ -58256,7 +58784,7 @@
     </row>
     <row r="126" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="200">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="199"/>
       <c r="C126" s="199"/>
@@ -58369,7 +58897,7 @@
     </row>
     <row r="127" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="200">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="199"/>
       <c r="C127" s="199"/>
@@ -58478,7 +59006,7 @@
     </row>
     <row r="128" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="200">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="199"/>
       <c r="C128" s="199"/>
@@ -58583,7 +59111,7 @@
     </row>
     <row r="129" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="200">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="199"/>
       <c r="C129" s="199"/>
@@ -58682,7 +59210,7 @@
     </row>
     <row r="130" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="200">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="199"/>
       <c r="C130" s="199"/>
@@ -58779,7 +59307,7 @@
     </row>
     <row r="131" spans="1:89" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="200">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="199" t="s">
         <v>2124</v>
@@ -58912,7 +59440,7 @@
     </row>
     <row r="132" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="200">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="199"/>
       <c r="C132" s="199"/>
@@ -59019,7 +59547,7 @@
     </row>
     <row r="133" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="200">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="199"/>
       <c r="C133" s="199"/>
@@ -59126,7 +59654,7 @@
     </row>
     <row r="134" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="200">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="199"/>
       <c r="C134" s="199"/>
@@ -59237,7 +59765,7 @@
     </row>
     <row r="135" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="200">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="199"/>
       <c r="C135" s="199"/>
@@ -59348,7 +59876,7 @@
     </row>
     <row r="136" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="200">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="199"/>
       <c r="C136" s="199"/>
@@ -59455,7 +59983,7 @@
     </row>
     <row r="137" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="200">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="199" t="s">
         <v>2138</v>
@@ -59596,7 +60124,7 @@
     </row>
     <row r="138" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="200">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="199"/>
       <c r="C138" s="199"/>
@@ -59705,7 +60233,7 @@
     </row>
     <row r="139" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="200">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="199"/>
       <c r="C139" s="199"/>
@@ -59810,7 +60338,7 @@
     </row>
     <row r="140" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="200">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="199" t="s">
         <v>1103</v>
@@ -59953,7 +60481,7 @@
     </row>
     <row r="141" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="200">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="199"/>
       <c r="C141" s="199"/>
@@ -60060,7 +60588,7 @@
     </row>
     <row r="142" spans="1:89" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="200">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="199" t="s">
         <v>2152</v>
@@ -60195,7 +60723,7 @@
     </row>
     <row r="143" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="200">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="199"/>
       <c r="C143" s="199"/>
@@ -60300,7 +60828,7 @@
     </row>
     <row r="144" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="200">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="199"/>
       <c r="C144" s="199"/>
@@ -60405,7 +60933,7 @@
     </row>
     <row r="145" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="200">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="199" t="s">
         <v>2160</v>
@@ -60604,7 +61132,7 @@
     </row>
     <row r="146" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="200">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="199"/>
       <c r="C146" s="199"/>
@@ -60715,7 +61243,7 @@
     </row>
     <row r="147" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="200">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="199" t="s">
         <v>2181</v>
@@ -60916,7 +61444,7 @@
     </row>
     <row r="148" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="200">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="199" t="s">
         <v>2195</v>
@@ -61101,7 +61629,7 @@
     </row>
     <row r="149" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="200">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="199"/>
       <c r="C149" s="199"/>
@@ -61214,7 +61742,7 @@
     </row>
     <row r="150" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="200">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="199"/>
       <c r="C150" s="199"/>
@@ -61333,7 +61861,7 @@
     </row>
     <row r="151" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="200">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="199" t="s">
         <v>1182</v>
@@ -61526,7 +62054,7 @@
     </row>
     <row r="152" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="200">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="199"/>
       <c r="C152" s="199"/>
@@ -61639,7 +62167,7 @@
     </row>
     <row r="153" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="200">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="199" t="s">
         <v>2219</v>
@@ -61840,7 +62368,7 @@
     </row>
     <row r="154" spans="1:89" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="200">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="199" t="s">
         <v>2231</v>
@@ -62041,7 +62569,7 @@
     </row>
     <row r="155" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="200">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="199" t="s">
         <v>2243</v>
@@ -62238,7 +62766,7 @@
     </row>
     <row r="156" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="200">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="199" t="s">
         <v>2254</v>
@@ -62423,7 +62951,7 @@
     </row>
     <row r="157" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="200">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="199"/>
       <c r="C157" s="199"/>
@@ -62532,7 +63060,7 @@
     </row>
     <row r="158" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="200">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="199" t="s">
         <v>2267</v>
@@ -62731,7 +63259,7 @@
     </row>
     <row r="159" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="200">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="199" t="s">
         <v>2273</v>
@@ -62926,7 +63454,7 @@
     </row>
     <row r="160" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="200">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="199" t="s">
         <v>2284</v>
@@ -63137,7 +63665,7 @@
     </row>
     <row r="161" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="200">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="199"/>
       <c r="C161" s="199"/>
@@ -63262,7 +63790,7 @@
     </row>
     <row r="162" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="200">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="199"/>
       <c r="C162" s="199"/>
@@ -63389,7 +63917,7 @@
     </row>
     <row r="163" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="200">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="199"/>
       <c r="C163" s="199"/>
@@ -63514,7 +64042,7 @@
     </row>
     <row r="164" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="200">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="199" t="s">
         <v>2304</v>
@@ -63729,7 +64257,7 @@
     </row>
     <row r="165" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="200">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="199" t="s">
         <v>2318</v>
@@ -63926,7 +64454,7 @@
     </row>
     <row r="166" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="200">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="199"/>
       <c r="C166" s="199"/>
@@ -64041,7 +64569,7 @@
     </row>
     <row r="167" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="200">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="199" t="s">
         <v>2335</v>
@@ -64254,7 +64782,7 @@
     </row>
     <row r="168" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="200">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="199"/>
       <c r="C168" s="199"/>
@@ -64377,7 +64905,7 @@
     </row>
     <row r="169" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="200">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="199"/>
       <c r="C169" s="199"/>
@@ -64496,7 +65024,7 @@
     </row>
     <row r="170" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="200">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="199"/>
       <c r="C170" s="199"/>
@@ -64615,7 +65143,7 @@
     </row>
     <row r="171" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="200">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="199"/>
       <c r="C171" s="199"/>
@@ -64730,7 +65258,7 @@
     </row>
     <row r="172" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="200">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="199" t="s">
         <v>2357</v>
@@ -64929,7 +65457,7 @@
     </row>
     <row r="173" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="200">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="199"/>
       <c r="C173" s="199"/>
@@ -65036,7 +65564,7 @@
     </row>
     <row r="174" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="200">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="199" t="s">
         <v>2374</v>
@@ -65237,7 +65765,7 @@
     </row>
     <row r="175" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="200">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="199" t="s">
         <v>2383</v>
@@ -65420,7 +65948,7 @@
     </row>
     <row r="176" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="200">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="199"/>
       <c r="C176" s="199"/>
@@ -65555,7 +66083,7 @@
     </row>
     <row r="177" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="200">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="199"/>
       <c r="C177" s="199"/>
@@ -65682,7 +66210,7 @@
     </row>
     <row r="178" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="200">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="199"/>
       <c r="C178" s="199"/>
@@ -65811,7 +66339,7 @@
     </row>
     <row r="179" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="200">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="199" t="s">
         <v>2402</v>
@@ -65976,7 +66504,7 @@
     </row>
     <row r="180" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="200">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="199"/>
       <c r="C180" s="199"/>
@@ -66101,7 +66629,7 @@
     </row>
     <row r="181" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="200">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="199"/>
       <c r="C181" s="199"/>
@@ -66214,7 +66742,7 @@
     </row>
     <row r="182" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="200">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="199" t="s">
         <v>2418</v>
@@ -66389,7 +66917,7 @@
     </row>
     <row r="183" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="200">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="199"/>
       <c r="C183" s="199"/>
@@ -66512,7 +67040,7 @@
     </row>
     <row r="184" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="200">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="199"/>
       <c r="C184" s="199"/>
@@ -66623,7 +67151,7 @@
     </row>
     <row r="185" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="200">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="199"/>
       <c r="C185" s="199"/>
@@ -66736,7 +67264,7 @@
     </row>
     <row r="186" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="200">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="199"/>
       <c r="C186" s="199"/>
@@ -66849,7 +67377,7 @@
     </row>
     <row r="187" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="200">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="199"/>
       <c r="C187" s="199"/>
@@ -66962,7 +67490,7 @@
     </row>
     <row r="188" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="200">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="199" t="s">
         <v>2436</v>
@@ -67131,7 +67659,7 @@
     </row>
     <row r="189" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="200">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="199"/>
       <c r="C189" s="199"/>
@@ -67262,7 +67790,7 @@
     </row>
     <row r="190" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="200">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="199"/>
       <c r="C190" s="199"/>
@@ -67383,7 +67911,7 @@
     </row>
     <row r="191" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="200">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="199" t="s">
         <v>2448</v>
@@ -67550,7 +68078,7 @@
     </row>
     <row r="192" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="200">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="199"/>
       <c r="C192" s="199"/>
@@ -67673,7 +68201,7 @@
     </row>
     <row r="193" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="200">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="199"/>
       <c r="C193" s="199"/>
@@ -67788,7 +68316,7 @@
     </row>
     <row r="194" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="200">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="199"/>
       <c r="C194" s="199"/>
@@ -67903,7 +68431,7 @@
     </row>
     <row r="195" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="200">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="199"/>
       <c r="C195" s="199"/>
@@ -68016,7 +68544,7 @@
     </row>
     <row r="196" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="200">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="199" t="s">
         <v>2460</v>
@@ -68199,7 +68727,7 @@
     </row>
     <row r="197" spans="1:89" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="200">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="199"/>
       <c r="C197" s="199"/>
